--- a/biology/Botanique/Aquilegia_viscosa/Aquilegia_viscosa.xlsx
+++ b/biology/Botanique/Aquilegia_viscosa/Aquilegia_viscosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ancolie des Causses (Aquilegia viscosa) est une espèce de plantes de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Biotope et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ancolie des Causses est une espèce endémique de la région des Grands Causses au sud du Massif central. Elle croît dans des zones rocailleuses calcaires, plutôt à l'ombre, sur des sols légers mais pas trop secs. Elle peut croître également à flanc de falaise, dans les gorges du Tarn ou de la Jonte sur les "balmes" (replat) qui reçoivent des écoulements d'eau du haut de la paroi.
 La sous-espèce hirsutissima croît dans les Pyrénées orientales mais celle-ci est plutôt considérée dans la plupart des flores comme une espèce à part entière connue sous le nom de Aquilegia kitaibelii Schott (Ancolie de Kitaibel) ou bien Aquilegia hirsutissima Timb.-Lagr..
@@ -543,17 +557,19 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 mai 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 mai 2014) :
 sous-espèce Aquilegia viscosa subsp. apuana
 sous-espèce Aquilegia viscosa subsp. hirsutissima
 sous-espèce Aquilegia viscosa subsp. montsicciana (Font Quer) O. Bolòs &amp; Vigo
 sous-espèce Aquilegia viscosa subsp. viscosa
 variété Aquilegia viscosa var. decipiens
-Selon The Plant List            (10 mai 2014)[1] :
+Selon The Plant List            (10 mai 2014) :
 sous-espèce Aquilegia viscosa subsp. hirsutissima (Lapeyr.) Breistr.
-Selon Tropicos                                           (10 mai 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Aquilegia viscosa subsp. guarensis (Losa) J.M. Monts.
 sous-espèce Aquilegia viscosa subsp. hirsutissima (Lapeyr.) Breistr.
 variété Aquilegia viscosa var. decipiens (Gren. &amp; Godr.) Breistr.</t>
